--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H2">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I2">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J2">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>334.3445527477871</v>
+        <v>452.4390843280889</v>
       </c>
       <c r="R2">
-        <v>3009.100974730083</v>
+        <v>4071.9517589528</v>
       </c>
       <c r="S2">
-        <v>0.04949239219184904</v>
+        <v>0.07123502662569293</v>
       </c>
       <c r="T2">
-        <v>0.04949239219184903</v>
+        <v>0.07123502662569293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H3">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I3">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J3">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>21.175152896079</v>
+        <v>28.98817028016</v>
       </c>
       <c r="R3">
-        <v>190.576376064711</v>
+        <v>260.89353252144</v>
       </c>
       <c r="S3">
-        <v>0.003134517859621526</v>
+        <v>0.004564090842867789</v>
       </c>
       <c r="T3">
-        <v>0.003134517859621526</v>
+        <v>0.004564090842867789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H4">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I4">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J4">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>1.885883821615</v>
+        <v>5.017731334720001</v>
       </c>
       <c r="R4">
-        <v>16.972954394535</v>
+        <v>45.15958201248</v>
       </c>
       <c r="S4">
-        <v>0.0002791638175664892</v>
+        <v>0.0007900250831781686</v>
       </c>
       <c r="T4">
-        <v>0.0002791638175664892</v>
+        <v>0.0007900250831781688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H5">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I5">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J5">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>97.20151731882102</v>
+        <v>78.5773469116978</v>
       </c>
       <c r="R5">
-        <v>874.8136558693891</v>
+        <v>707.1961222052802</v>
       </c>
       <c r="S5">
-        <v>0.01438855688614995</v>
+        <v>0.01237174150801718</v>
       </c>
       <c r="T5">
-        <v>0.01438855688614995</v>
+        <v>0.01237174150801718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H6">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I6">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J6">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.186321720537</v>
+        <v>3.314377588426667</v>
       </c>
       <c r="R6">
-        <v>1.676895484833</v>
+        <v>29.82939829584</v>
       </c>
       <c r="S6">
-        <v>2.75808521206372E-05</v>
+        <v>0.000521837710174403</v>
       </c>
       <c r="T6">
-        <v>2.75808521206372E-05</v>
+        <v>0.000521837710174403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>399.358581</v>
       </c>
       <c r="I7">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J7">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>2084.670917658712</v>
+        <v>2060.673194287368</v>
       </c>
       <c r="R7">
-        <v>18762.03825892841</v>
+        <v>18546.05874858632</v>
       </c>
       <c r="S7">
-        <v>0.3085898956623265</v>
+        <v>0.3244461297589074</v>
       </c>
       <c r="T7">
-        <v>0.3085898956623264</v>
+        <v>0.3244461297589074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>399.358581</v>
       </c>
       <c r="I8">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J8">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
         <v>132.029144954343</v>
@@ -948,10 +948,10 @@
         <v>1188.262304589087</v>
       </c>
       <c r="S8">
-        <v>0.0195440247766324</v>
+        <v>0.02078754904686778</v>
       </c>
       <c r="T8">
-        <v>0.0195440247766324</v>
+        <v>0.02078754904686778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>399.358581</v>
       </c>
       <c r="I9">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J9">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>11.75866968578833</v>
+        <v>22.853694156306</v>
       </c>
       <c r="R9">
-        <v>105.828027172095</v>
+        <v>205.683247406754</v>
       </c>
       <c r="S9">
-        <v>0.001740613648287692</v>
+        <v>0.003598238012831267</v>
       </c>
       <c r="T9">
-        <v>0.001740613648287692</v>
+        <v>0.003598238012831267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>399.358581</v>
       </c>
       <c r="I10">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J10">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>606.0609471322903</v>
+        <v>357.8873666487577</v>
       </c>
       <c r="R10">
-        <v>5454.548524190613</v>
+        <v>3220.986299838819</v>
       </c>
       <c r="S10">
-        <v>0.08971405647593084</v>
+        <v>0.05634817365543109</v>
       </c>
       <c r="T10">
-        <v>0.08971405647593081</v>
+        <v>0.05634817365543108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>399.358581</v>
       </c>
       <c r="I11">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J11">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>1.161734112129</v>
+        <v>15.095621242273</v>
       </c>
       <c r="R11">
-        <v>10.455607009161</v>
+        <v>135.860591180457</v>
       </c>
       <c r="S11">
-        <v>0.0001719693048012985</v>
+        <v>0.002376755276838342</v>
       </c>
       <c r="T11">
-        <v>0.0001719693048012984</v>
+        <v>0.002376755276838342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H12">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I12">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J12">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>1052.449304224102</v>
+        <v>763.0090096391374</v>
       </c>
       <c r="R12">
-        <v>9472.043738016922</v>
+        <v>6867.081086752236</v>
       </c>
       <c r="S12">
-        <v>0.1557920812485637</v>
+        <v>0.1201332267701991</v>
       </c>
       <c r="T12">
-        <v>0.1557920812485636</v>
+        <v>0.1201332267701991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H13">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I13">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J13">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>66.655115954973</v>
+        <v>48.886658696967</v>
       </c>
       <c r="R13">
-        <v>599.896043594757</v>
+        <v>439.979928272703</v>
       </c>
       <c r="S13">
-        <v>0.009866830828630968</v>
+        <v>0.007697041556635928</v>
       </c>
       <c r="T13">
-        <v>0.009866830828630966</v>
+        <v>0.007697041556635927</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H14">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I14">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J14">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>5.936382392338333</v>
+        <v>8.462076661714001</v>
       </c>
       <c r="R14">
-        <v>53.427441531045</v>
+        <v>76.15868995542601</v>
       </c>
       <c r="S14">
-        <v>0.0008787514650613384</v>
+        <v>0.001332325780830929</v>
       </c>
       <c r="T14">
-        <v>0.0008787514650613384</v>
+        <v>0.001332325780830929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H15">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I15">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J15">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>305.9707969846604</v>
+        <v>132.5155710988235</v>
       </c>
       <c r="R15">
-        <v>2753.737172861943</v>
+        <v>1192.640139889411</v>
       </c>
       <c r="S15">
-        <v>0.04529227875604342</v>
+        <v>0.02086413522289401</v>
       </c>
       <c r="T15">
-        <v>0.04529227875604341</v>
+        <v>0.02086413522289401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H16">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I16">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J16">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>0.586503245019</v>
+        <v>5.589481653803668</v>
       </c>
       <c r="R16">
-        <v>5.278529205171</v>
+        <v>50.30533488423301</v>
       </c>
       <c r="S16">
-        <v>8.681896679850906E-05</v>
+        <v>0.0008800452662568678</v>
       </c>
       <c r="T16">
-        <v>8.681896679850904E-05</v>
+        <v>0.0008800452662568678</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H17">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I17">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J17">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>434.7391603111778</v>
+        <v>513.0857695067073</v>
       </c>
       <c r="R17">
-        <v>3912.652442800601</v>
+        <v>4617.771925560365</v>
       </c>
       <c r="S17">
-        <v>0.06435361619157816</v>
+        <v>0.08078364517591105</v>
       </c>
       <c r="T17">
-        <v>0.06435361619157814</v>
+        <v>0.08078364517591105</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H18">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I18">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J18">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>27.5334774078</v>
+        <v>32.873856768753</v>
       </c>
       <c r="R18">
-        <v>247.8012966702</v>
+        <v>295.864710918777</v>
       </c>
       <c r="S18">
-        <v>0.004075728619093741</v>
+        <v>0.005175879236182846</v>
       </c>
       <c r="T18">
-        <v>0.00407572861909374</v>
+        <v>0.005175879236182846</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H19">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I19">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J19">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>2.452163620777778</v>
+        <v>5.690327454526</v>
       </c>
       <c r="R19">
-        <v>22.069472587</v>
+        <v>51.212947090734</v>
       </c>
       <c r="S19">
-        <v>0.000362989145899646</v>
+        <v>0.00089592310163489</v>
       </c>
       <c r="T19">
-        <v>0.0003629891458996459</v>
+        <v>0.0008959231016348901</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H20">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I20">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J20">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>126.3884985499778</v>
+        <v>89.11015847770545</v>
       </c>
       <c r="R20">
-        <v>1137.4964869498</v>
+        <v>801.9914262993491</v>
       </c>
       <c r="S20">
-        <v>0.01870905055089415</v>
+        <v>0.01403009760132912</v>
       </c>
       <c r="T20">
-        <v>0.01870905055089415</v>
+        <v>0.01403009760132912</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H21">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I21">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J21">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.2422690834</v>
+        <v>3.758649582449667</v>
       </c>
       <c r="R21">
-        <v>2.1804217506</v>
+        <v>33.827846242047</v>
       </c>
       <c r="S21">
-        <v>3.586263449800424E-05</v>
+        <v>0.0005917868556384331</v>
       </c>
       <c r="T21">
-        <v>3.586263449800422E-05</v>
+        <v>0.0005917868556384331</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H22">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I22">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J22">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N22">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O22">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P22">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q22">
-        <v>1060.129534582785</v>
+        <v>1266.954348363085</v>
       </c>
       <c r="R22">
-        <v>9541.165811245068</v>
+        <v>11402.58913526776</v>
       </c>
       <c r="S22">
-        <v>0.1569289712320007</v>
+        <v>0.1994777415687088</v>
       </c>
       <c r="T22">
-        <v>0.1569289712320006</v>
+        <v>0.1994777415687088</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H23">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I23">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J23">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.975427</v>
       </c>
       <c r="O23">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P23">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q23">
-        <v>67.14153049585801</v>
+        <v>81.174880021872</v>
       </c>
       <c r="R23">
-        <v>604.273774462722</v>
+        <v>730.5739201968479</v>
       </c>
       <c r="S23">
-        <v>0.009938833853736208</v>
+        <v>0.01278071444310118</v>
       </c>
       <c r="T23">
-        <v>0.009938833853736206</v>
+        <v>0.01278071444310118</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H24">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I24">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J24">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N24">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q24">
-        <v>5.979703038841111</v>
+        <v>14.051033064224</v>
       </c>
       <c r="R24">
-        <v>53.81732734957001</v>
+        <v>126.459297578016</v>
       </c>
       <c r="S24">
-        <v>0.0008851641384819141</v>
+        <v>0.002212288348021368</v>
       </c>
       <c r="T24">
-        <v>0.000885164138481914</v>
+        <v>0.002212288348021368</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H25">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I25">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J25">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N25">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q25">
-        <v>308.2036135150532</v>
+        <v>220.0382654837529</v>
       </c>
       <c r="R25">
-        <v>2773.832521635479</v>
+        <v>1980.344389353776</v>
       </c>
       <c r="S25">
-        <v>0.04562279836674576</v>
+        <v>0.03464429189110466</v>
       </c>
       <c r="T25">
-        <v>0.04562279836674574</v>
+        <v>0.03464429189110466</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H26">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I26">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J26">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N26">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O26">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P26">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q26">
-        <v>0.5907832421740001</v>
+        <v>9.281172301925334</v>
       </c>
       <c r="R26">
-        <v>5.317049179566001</v>
+        <v>83.530550717328</v>
       </c>
       <c r="S26">
-        <v>8.745252668765448E-05</v>
+        <v>0.001461289660744389</v>
       </c>
       <c r="T26">
-        <v>8.745252668765444E-05</v>
+        <v>0.001461289660744389</v>
       </c>
     </row>
   </sheetData>
